--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2038.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2038.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153886753256455</v>
+        <v>1.242356181144714</v>
       </c>
       <c r="B1">
-        <v>2.365776033845291</v>
+        <v>2.098983526229858</v>
       </c>
       <c r="C1">
-        <v>6.186717194423875</v>
+        <v>5.932182312011719</v>
       </c>
       <c r="D1">
-        <v>2.394742940294803</v>
+        <v>1.966402649879456</v>
       </c>
       <c r="E1">
-        <v>1.217992502373838</v>
+        <v>1.142043113708496</v>
       </c>
     </row>
   </sheetData>
